--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>72.83</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009128</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明亚价值长青混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.48</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.48</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>009128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>明亚价值长青混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.50</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>009129</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>明亚价值长青混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>000165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>国投瑞银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000165</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银策略精选混合</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>62.86</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.67</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>57.03</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>58.77</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.82</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1250,7 +1251,6 @@
           <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>93.76</t>
@@ -1266,6 +1266,100 @@
       </c>
       <c r="H14" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1365,4 +1366,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1498,4 +1499,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1507,7 +1508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,17 +1519,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1538,14 +1559,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1554,14 +1597,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1570,14 +1703,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1586,13 +1719,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1640,7 +1641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,17 +1652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1671,14 +1692,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1782,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1703,14 +1798,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -1719,14 +1814,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -1735,13 +1830,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
+++ b/数据整理/stocks/A股/深证主板/000582-北部湾港.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,291 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -791,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>34.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -905,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -943,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>57.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -981,295 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519656</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+      <c r="D7" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1304,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1334,6 +639,100 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>000165</t>
         </is>
       </c>
@@ -1344,26 +743,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.87</t>
+          <t>55.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0856</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,7 +967,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1570,64 +1007,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>55.19</t>
+          <t>66.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1662,7 +1061,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1692,35 +1091,484 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>000165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>国投瑞银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>62.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1614</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1735,128 +1583,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.35</v>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>